--- a/APPLE PAY/CheckElegibility/ExcelFileReport/ReporteFlujoNaranja.xlsx
+++ b/APPLE PAY/CheckElegibility/ExcelFileReport/ReporteFlujoNaranja.xlsx
@@ -207,11 +207,11 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.6"/>
